--- a/Analiza Brand Equity/Brand.Health.Index.xlsx
+++ b/Analiza Brand Equity/Brand.Health.Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianstodolski/Code/Data_Science_Professional_Project/Analiza Brand Equity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590D564-D5AE-0A40-951F-DFFE0EC63245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F4965-92F0-7C42-B3AD-5166BD06A50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{0C56A14F-8488-4F8D-B56B-91E9D8CE8428}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>T8</t>
   </si>
   <si>
-    <t>T9+T10</t>
-  </si>
-  <si>
     <t>T11</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>T13</t>
+  </si>
+  <si>
+    <t>T9+T4</t>
   </si>
 </sst>
 </file>
@@ -765,7 +765,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>26</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>20</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>7</v>
